--- a/import/長期照護型機構.xlsx
+++ b/import/長期照護型機構.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="長期照護型機構" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>彰化縣私立崇愛老人長期照護中心</t>
   </si>
   <si>
-    <t>彰化縣彰化市和平里金馬路三段912號2_5樓</t>
-  </si>
-  <si>
     <t>04-7626956</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>雲林縣私立三和老人長期照顧中心(長期照護型)</t>
   </si>
   <si>
-    <t>雲林縣褒忠鄉中民村大部路2-68號</t>
-  </si>
-  <si>
     <t>雲林縣私立萊園老人長期照護中心</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>臺中市</t>
   </si>
   <si>
-    <t>臺中市北區404錦祥里北屯路26號9、10、12樓(不含12樓之9及12樓之10)</t>
-  </si>
-  <si>
     <t>04-22302033</t>
   </si>
   <si>
@@ -934,12 +925,24 @@
   </si>
   <si>
     <t>ls97_1@yahoo.com.tw</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市金馬路三段912號2樓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲林縣褒忠鄉大部路2-68號</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺中市北屯路26號9樓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1884,11 +1887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1974,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H3">
         <v>32</v>
@@ -2017,10 +2020,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -2043,10 +2046,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -2069,10 +2072,10 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
@@ -2089,19 +2092,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
       </c>
       <c r="H8">
         <v>49</v>
@@ -2109,25 +2112,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -2135,25 +2138,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -2161,25 +2164,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -2187,25 +2190,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H12">
         <v>49</v>
@@ -2213,25 +2216,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
       </c>
       <c r="H13">
         <v>49</v>
@@ -2239,25 +2242,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
       </c>
       <c r="H14">
         <v>198</v>
@@ -2265,25 +2268,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
       </c>
       <c r="H15">
         <v>49</v>
@@ -2291,25 +2294,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
       </c>
       <c r="H16">
         <v>40</v>
@@ -2317,25 +2320,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
       </c>
       <c r="H17">
         <v>49</v>
@@ -2343,25 +2346,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H18">
         <v>48</v>
@@ -2369,25 +2372,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H19">
         <v>48</v>
@@ -2395,25 +2398,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H20">
         <v>48</v>
@@ -2421,25 +2424,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H21">
         <v>48</v>
@@ -2447,25 +2450,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H22">
         <v>49</v>
@@ -2473,25 +2476,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H23">
         <v>30</v>
@@ -2499,25 +2502,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H24">
         <v>27</v>
@@ -2525,25 +2528,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>96</v>
       </c>
       <c r="H25">
         <v>48</v>
@@ -2551,25 +2554,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H26">
         <v>96</v>
@@ -2577,25 +2580,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
         <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
       </c>
       <c r="H27">
         <v>41</v>
@@ -2603,25 +2606,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H28">
         <v>28</v>
@@ -2629,25 +2632,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H29">
         <v>49</v>
@@ -2655,25 +2658,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -2681,25 +2684,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -2707,25 +2710,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>113</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" t="s">
-        <v>115</v>
       </c>
       <c r="H32">
         <v>49</v>
@@ -2733,25 +2736,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2759,25 +2762,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H34">
         <v>40</v>
@@ -2785,25 +2788,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -2811,25 +2814,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H36">
         <v>196</v>
@@ -2837,25 +2840,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H37">
         <v>45</v>
@@ -2863,25 +2866,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H38">
         <v>90</v>
@@ -2889,25 +2892,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H39">
         <v>49</v>
@@ -2915,25 +2918,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H40">
         <v>30</v>
@@ -2941,25 +2944,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
         <v>135</v>
-      </c>
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" t="s">
-        <v>266</v>
-      </c>
-      <c r="G41" t="s">
-        <v>137</v>
       </c>
       <c r="H41">
         <v>117</v>
@@ -2967,22 +2970,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" t="s">
         <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" t="s">
-        <v>140</v>
       </c>
       <c r="H42">
         <v>39</v>
@@ -2990,19 +2993,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
         <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H43">
         <v>34</v>
@@ -3010,25 +3013,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H44">
         <v>49</v>
@@ -3036,25 +3039,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G45" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H45">
         <v>47</v>
@@ -3062,19 +3065,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
         <v>148</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
       </c>
       <c r="H46">
         <v>49</v>
@@ -3082,25 +3085,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H47">
         <v>25</v>
@@ -3108,22 +3111,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
         <v>153</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
+      <c r="G48" t="s">
         <v>155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" t="s">
-        <v>157</v>
       </c>
       <c r="H48">
         <v>25</v>
@@ -3131,22 +3134,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
         <v>158</v>
       </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="G49" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" t="s">
-        <v>161</v>
       </c>
       <c r="H49">
         <v>16</v>
@@ -3154,25 +3157,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
         <v>162</v>
       </c>
-      <c r="B50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
         <v>163</v>
       </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>164</v>
-      </c>
-      <c r="F50" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" t="s">
-        <v>166</v>
       </c>
       <c r="H50">
         <v>48</v>
@@ -3180,25 +3183,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="F51" t="s">
         <v>168</v>
       </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>169</v>
-      </c>
-      <c r="F51" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" t="s">
-        <v>171</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -3206,25 +3209,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
         <v>172</v>
       </c>
-      <c r="B52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="F52" t="s">
         <v>173</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>174</v>
-      </c>
-      <c r="F52" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" t="s">
-        <v>176</v>
       </c>
       <c r="H52">
         <v>41</v>
@@ -3232,25 +3235,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
         <v>177</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>178</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>179</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G53" t="s">
-        <v>182</v>
       </c>
       <c r="H53">
         <v>91</v>
@@ -3258,25 +3261,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" t="s">
         <v>183</v>
       </c>
-      <c r="B54" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" t="s">
-        <v>187</v>
       </c>
       <c r="H54">
         <v>23</v>
@@ -3284,22 +3287,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" t="s">
         <v>188</v>
-      </c>
-      <c r="B55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" t="s">
-        <v>191</v>
       </c>
       <c r="H55">
         <v>82</v>
@@ -3307,25 +3310,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G56" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H56">
         <v>21</v>
@@ -3333,25 +3336,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
       </c>
-      <c r="C57" t="s">
-        <v>196</v>
-      </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H57">
         <v>27</v>
@@ -3359,25 +3362,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H58">
         <v>46</v>
@@ -3385,25 +3388,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H59">
         <v>42</v>
@@ -3412,5 +3415,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>